--- a/data-raw/issp_datasets.xlsx
+++ b/data-raw/issp_datasets.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="179">
   <si>
     <t>ISSP</t>
   </si>
@@ -138,12 +138,6 @@
     <t>issp1994</t>
   </si>
   <si>
-    <t>issp1994 &lt;- read.dta(paste0(datapath, "ISSP/Family/Family II/ZA2620.dta"), convert.factors=F)</t>
-  </si>
-  <si>
-    <t>data.frame(v3 = 1:24, c_dcpo = c("Australia", "Germany",  "Germany", "United Kingdom", "Northern Ireland", "United States",  "Austria", "Hungary", "Italy", "Ireland", "Netherlands", "Norway",  "Sweden", "Czech Republic", "Slovenia", "Poland", "Bulgaria",  "Russia", "New Zealand", "Canada", "Philippines", "Israel", "Japan",  "Spain"), y_dcpo = c(1994, 1994, 1994, 1994, 1994, 1994, 1996,  1994, 1994, 1994, 1995, 1994, 1994, 1994, 1993, 1994, 1995, 1994,  1994, 1993, 1994, 1994, 1994, 1994), stringsAsFactors = F)</t>
-  </si>
-  <si>
     <t>v315</t>
   </si>
   <si>
@@ -156,12 +150,6 @@
     <t>issp1995</t>
   </si>
   <si>
-    <t>issp1995 &lt;- read.dta(paste0(datapath, "ISSP/National Identity/National Identity I/ZA2880.dta"), convert.factors=F)</t>
-  </si>
-  <si>
-    <t>data.frame(v3 = c(1:4, 6:21, 23:26), c_dcpo = c("Australia", "Germany", "Germany",  "United Kingdom", "United States", "Austria", "Hungary", "Italy", "Ireland", "Netherlands",  "Norway", "Sweden", "Czech Republic", "Slovakia", "Poland", "Bulgaria",  "Russia", "New Zealand", "Canada", "Philippines", "Japan", "Spain", "Latvia", "Slovakia" ), y_dcpo = 1995, stringsAsFactors = F)</t>
-  </si>
-  <si>
     <t>v342</t>
   </si>
   <si>
@@ -174,12 +162,6 @@
     <t>issp1996</t>
   </si>
   <si>
-    <t>issp1996 &lt;- read.dta(paste0(datapath, "ISSP/Role of Gov't/Role of Gov't III/ZA2900.dta"), convert.factors=F)</t>
-  </si>
-  <si>
-    <t>data.frame(v3 = c(1L, 2L, 3L, 4L, 6L, 8L, 9L, 10L, 12L, 13L, 14L, 15L, 16L, 17L, 18L, 19L, 20L, 21L, 22L, 23L, 24L, 25L, 26L,  27L, 28L, 30L), c_dcpo = c("Australia", "Germany", "Germany",  "United Kingdom", "United States", "Hungary", "Italy", "Ireland",  "Norway", "Sweden", "Czech Republic", "Slovenia", "Poland", "Bulgaria",  "Russia", "New Zealand", "Canada", "Philippines", "Israel", "Israel",  "Japan", "Spain", "Latvia", "France", "Cyprus", "Switzerland" ), y_dcpo = c(1996, 1996, 1996, 1996, 1996, 1996, 1996, 1996,  1996, 1996, 1996, 1995, 1997, 1996, 1996, 1997, 1996, 1996, 1996,  1996, 1996, 1996, 1996, 1997, 1996, 1996), stringsAsFactors = F)</t>
-  </si>
-  <si>
     <t>v325</t>
   </si>
   <si>
@@ -201,12 +183,6 @@
     <t>issp1998</t>
   </si>
   <si>
-    <t>issp1998 &lt;- read.dta(paste0(datapath, "ISSP/Religion/Religion II/ZA3190.dta"), convert.factors=F)</t>
-  </si>
-  <si>
-    <t>data.frame(v3 = c(1L, 2L, 3L, 4L, 5L, 6L, 7L, 8L, 9L, 10L,  11L, 12L, 13L, 14L, 15L, 16L, 17L, 18L, 19L, 20L, 21L, 22L, 24L,  25L, 26L, 27L, 28L, 29L, 30L, 31L, 32L, 33L), c_dcpo = c("Australia",  "Germany", "Germany", "United Kingdom", "Northern Ireland", "United States",  "Austria", "Hungary", "Italy", "Ireland", "Netherlands", "Norway",  "Sweden", "Czech Republic", "Slovenia", "Poland", "Bulgaria",  "Russia", "New Zealand", "Canada", "Philippines", "Israel", "Japan",  "Spain", "Latvia", "Slovakia", "France", "Cyprus", "Portugal",  "Chile", "Denmark", "Switzerland"), y_dcpo = c(1998, 1998, 1998,  1998, 1998, 1998, 1999, 1998, 1999, 1998, 1998, 1998, 1998, 1999,  1998, 1999, 1999, 1998, 1998, 2000, 1998, 1998, 1998, 1998, 1998,  1998, 1998, 1999, 1998, 1998, 1998, 1999), stringsAsFactors = F)</t>
-  </si>
-  <si>
     <t>v316</t>
   </si>
   <si>
@@ -219,12 +195,6 @@
     <t>issp1999</t>
   </si>
   <si>
-    <t>issp1999 &lt;- read.dta(paste0(datapath, "ISSP/Social Inequality/Social Inequality III/ZA3430_F1.dta"), convert.factors=F)</t>
-  </si>
-  <si>
-    <t>data.frame(v3 = c(1L, 2L, 3L, 4L, 5L, 6L, 7L, 8L, 12L, 13L,  14L, 15L, 16L, 17L, 18L, 19L, 20L, 21L, 22L, 24L, 25L, 26L, 27L,  28L, 29L, 30L, 33L), c_dcpo = c("Australia", "Germany", "Germany",  "United Kingdom", "North Ireland", "United States", "Austria",  "Hungary", "Norway", "Sweden", "Czech Republic", "Slovenia",  "Poland", "Bulgaria", "Russia", "New Zealand", "Canada", "Philippines",  "Israel", "Japan", "Spain", "Latvia", "France", "Cyprus", "Portugal",  "Chile", "Slovakia"), y_dcpo = c(1999, 1999, 1999, 1999, 1999,  1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999,  1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999 ), stringsAsFactors = F)</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
@@ -237,12 +207,6 @@
     <t>issp2000</t>
   </si>
   <si>
-    <t>issp2000 &lt;- read.dta(paste0(datapath, "ISSP/Environment/Environment II/ZA3440.dta"), convert.factors=F)</t>
-  </si>
-  <si>
-    <t>data.frame(v3 = c(2L, 3L, 4L, 5L, 6L, 7L, 10L, 11L, 12L,  13L, 14L, 15L, 17L, 18L, 19L, 20L, 21L, 22L, 24L, 25L, 26L, 30L,  31L, 32L, 33L, 37L, 38L), y_dcpo = c(2000, 2000, 2000, 2000,  2000, 2001, 2002, 2000, 2000, 2001, 2000, 2000, 2000, 2000, 2000,  2001, 2000, 2000, 2000, 2000, 2000, 2000, 2000, 2001, 2001, 2000,  2001), c_dcpo = c("Germany", "Germany", "Great Britain", "Northern Ireland",  "United States", "Austria", "Ireland", "Netherlands", "Norway",  "Sweden", "Czech Republic", "Slovenia", "Bulgaria", "Russia",  "New Zealand", "Canada", "Philippines", "Israel", "Japan", "Spain",  "Latvia", "Portugal", "Chile", "Denmark", "Switzerland", "Finland",  "Mexico"), stringsAsFactors = F)</t>
-  </si>
-  <si>
     <t>v327</t>
   </si>
   <si>
@@ -465,9 +429,6 @@
     <t>Citizenship II</t>
   </si>
   <si>
-    <t>issp1989 &lt;- read.dta("ISSP/Work Orientation I/Work Orientation I/ZA1840.dta")</t>
-  </si>
-  <si>
     <t>data.frame(v3 = c(2:12), c_dcpo = c("WEST GERMANY", "GREAT BRITAIN", "USA", "AUSTRIA", "HUNGARY", "NETHERLANDS", "ITALY", "IRELAND", "NORTHERN IRELAND", "NORWAY", "ISRAEL"), y_dcpo = c(1988, 1990, 1990, 1989, "na", 1990, 1989, "na", 1990, 1989, "na"), stringsAsFactors=F)</t>
   </si>
   <si>
@@ -508,6 +469,93 @@
   </si>
   <si>
     <t>data.frame(v3 = 1:18, c_dcpo = c("AUSTRALIA", "WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "USA", "AUSTRIA", "HUNGARY", "ITALY", "NORWAY", "SWEDEN", "CZECHOSLOVAKIA", "SLOVENIA", "POLAND", "BULGARIA", "RUSSIA", "NEW ZEALAND", "CANADA", "PHILIPPINES"), y_dcpo = c(1993, 1992, 1992, 1992, 1992, 1993, 1992, 1992, 1992, 1991, 1992, 1992, 1992, 1993, 1992, 1992, 1992, 1992), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>issp1993 &lt;- read.dta("ISSP/Environment/Environment I/ZA2450.dta")</t>
+  </si>
+  <si>
+    <t>v419</t>
+  </si>
+  <si>
+    <t>issp1994 &lt;- read.dta("ISSP/Family/Family II/ZA2620.dta")</t>
+  </si>
+  <si>
+    <t>issp1995 &lt;- read.dta("ISSP/National Identity/National Identity I/ZA2880.dta")</t>
+  </si>
+  <si>
+    <t>data.frame(v3 = c(1:6, 8:23), c_dcpo = c("AUSTRALIA", "WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "NORTHERN IRELAND", "USA", "HUNGARY", "ITALY", "IRELAND", "NETHERLANDS", "NORWAY", "CZECH REPUBLIC", "SLOVENIA", "POLAND", "BULGARIA", "RUSSIA", "NEW ZEALAND", "CANADA", "PHILIPPINES", "ISRAEL", "JAPAN", "SPAIN"), y_dcpo = c(1994, 1993, 1993, 1993, 1993, 1993, 1993, 1993, 1993, 1993, 1993, 1993, 1993, 1993, 1994, 1993, 1993, 1993, 1993, 1993, 1992, 1994), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>issp1996 &lt;- read.dta("ISSP/Role of Gov't/Role of Gov't III/ZA2900.dta")</t>
+  </si>
+  <si>
+    <t>data.frame(v3 = 1:24, c_dcpo = c("AUSTRALIA", "WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "NORTHERN IRELAND", "USA", "AUSTRIA", "HUNGARY", "ITALY", "IRELAND", "NETHERLANDS", "NORWAY", "SWEDEN", "CZECH REPUBLIC", "SLOVENIA", "POLAND", "BULGARIA", "RUSSIA", "NEW ZEALAND", "CANADA", "PHILIPPINES", "ISRAEL", "JAPAN", "SPAIN"), y_dcpo = c(1994, 1994, 1994, 1994, 1994, 1994, 1996,  1994, 1994, 1994, 1995, 1994, 1994, 1994, 1993, 1994, 1995, 1994,  1994, 1993, 1994, 1994, 1994, 1994), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>data.frame(v3 = c(1:4, 6:21, 23:26), c_dcpo = c("AUSTRALIA", "WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "USA", "AUSTRIA", "HUNGARY", "ITALY", "IRELAND", "NETHERLANDS", "NORWAY", "SWEDEN", "CZECH REPUBLIC", "SLOVENIA", "POLAND", "BULGARIA", "RUSSIA", "NEW ZEALAND", "CANADA", "PHILIPPINES", "JAPAN", "SPAIN", "LATVIA", "SLOVAK REPUBLIC"), y_dcpo = 1995, stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>data.frame(v3 = c(1:4, 6, 8:10, 12:28, 30), c_dcpo = c("AUSTRALIA", "WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "USA", "HUNGARY", "ITALY", "IRELAND", "NORWAY", "SWEDEN", "CZECH REPUBLIC", "SLOVENIA", "POLAND", "BULGARIA", "RUSSIA", "NEW ZEALAND", "CANADA", "PHILIPPINES", "ISRAEL-JEWS", "ISRAEL-ARABS", "JAPAN", "SPAIN", "LATVIA", "FRANCE", "CYPRUS", "SWITZERLAND" ), y_dcpo = c(1996, 1996, 1996, 1996, 1996, 1996, 1996, 1996,  1996, 1996, 1996, 1995, 1997, 1996, 1996, 1997, 1996, 1996, 1996,  1996, 1996, 1996, 1996, 1997, 1996, 1996), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>issp1989 &lt;- read.dta("ISSP/Work Orientation/Work Orientation II/ZA1840.dta")</t>
+  </si>
+  <si>
+    <t>issp1989 &lt;- read.dta("ISSP/Work Orientation/Work Orientation I/ZA1840.dta")</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>load_cmd</t>
+  </si>
+  <si>
+    <t>cy_data</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>error in data/document</t>
+  </si>
+  <si>
+    <t>in the variable list of v3-country (p85 of the codebook), Spain is coded twice</t>
+  </si>
+  <si>
+    <t>data.frame(v3 = c(2:4, 6, 8:9, 11:25, 27:32), c_dcpo = c("WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "USA", "HUNGARY", "ITALY", "NETHERLANDS", "NORWAY", "SWEDEN", "CZECH REPUBLIC", "SLOVENIA", "POLAND", "BULGARIA", "RUSSIA", "NEW ZEALAND", "CANADA", "PHILIPPINES", "ISRAEL-JEWS", "ISRAEL-ARABS", "JAPAN", "SPAIN", "FRANCE", "CYPRUS", "PORTUGAL", "DENMARK", "SWITZERLAND", "BANGLADESH"), y_dcpo = c(1997, 1997, 1997, 1998, 1997, 1997, 1998, 1997,  1997, 1997, 1997, 1997, 1997, 1998, 1997, 1999, 1997, "na", "na", 1997,  1997, 1998, 1997, 1997, 1997, 1999, 1998), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>issp1998 &lt;- read.dta("ISSP/Religion/Religion II/ZA3190.dta")</t>
+  </si>
+  <si>
+    <t>issp1999 &lt;- read.dta("ISSP/Social Inequality/Social Inequality III/ZA3430_F1.dta")</t>
+  </si>
+  <si>
+    <t>issp2000 &lt;- read.dta("ISSP/Environment/Environment II/ZA3440.dta")</t>
+  </si>
+  <si>
+    <t>data.frame(v3 = c(1:22, 24:33), c_dcpo = c("AUSTRALIA",  "WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "NORTHERN IRELAND", "USA",  "AUSTRIA", "HUNGARY", "ITALY", "IRELAND", "NETHERLANDS", "NORWAY",  "SWEDEN", "CZECH REPUBLIC", "SLOVENIA", "POLAND", "BULGARIA",  "RUSSIA", "NEW ZEALAND", "CANADA", "PHILIPPINES", "ISRAEL", "JAPAN",  "SPAIN", "LATVIA", "SLOVAKIA", "FRANCE", "CYPRUS", "PORTUGAL",  "CHILE", "DENMARK", "SWITZERLAND"), y_dcpo = c(1998, 1998, 1998,  1998, 1998, 1998, 1999, 1998, 1999, 1998, 1998, 1998, 1998, 1999,  1998, 1999, 1999, 1998, 1998, 2000, 1998, 1998, 1998, 1998, 1998,  1998, 1998, 1999, 1998, 1998, 1998, 1999), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>data.frame(v3 = c(1:8, 12:22, 24:30, 33), c_dcpo = c("AUSTRALIA", "WEST GERMANY", "EAST GERMANY",  "GREAT BRITAIN", "NORTH IRELAND", "USA", "AUSTRIA",  "HUNGARY", "NORWAY", "SWEDEN", "CZECH REPUBLIC", "SLOVENIA",  "POLAND", "BULGARIA", "RUSSIA", "NEW ZEALAND", "CANADA", "PHILIPPINES",  "ISRAEL", "JAPAN", "SPAIN", "LATVIA", "FRANCE", "CYPRUS", "PORTUGAL",  "CHILE", "SLOVAKIA"), y_dcpo = c(1999, 1999, 1999, 1999, 1999,  1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999,  1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999, 1999 ), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>data.frame(v3 = c(2:7, 10:15, 17:22, 24:26, 30:33, 37:38), c_dcpo = c("WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "NORTHERN IRELAND",  "USA", "AUSTRIA", "IRELAND", "NETHERLANDS", "NORWAY",  "SWEDEN", "CZECH REPUBLIC", "SLOVENIA", "BULGARIA", "RUSSIA",  "NEW ZEALAND", "CANADA", "PHILIPPINES", "ISRAEL", "JAPAN", "SPAIN",  "LATVIA", "PORTUGAL", "CHILE", "DENMARK", "SWITZERLAND", "FINLAND",  "MEXICO"), y_dcpo = c(2000, 2000, 2000, 2000,  2000, 2001, 2002, 2000, 2000, 2001, 2000, 2000, 2000, 2000, 2000,  2001, 2000, 2000, 2000, 2000, 2000, 2000, 2000, 2001, 2001, 2000,  2001), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>issp2001 &lt;- read.dta("ISSP/Social Relations/Social Relations Ii/ZA3680.dta")</t>
+  </si>
+  <si>
+    <t>data.frame(v3 = c(1:37), c_dcpo = c("AUSTRALIA",  "WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "NORTHERN IRELAND", "USA",  "AUSTRIA", "HUNGARY", "ITALY", "IRELAND", "NETHERLANDS", "NORWAY",  "SWEDEN", "CZECH REPUBLIC", "SLOVENIA", "POLAND", "BULGARIA",  "RUSSIA", "NEW ZEALAND", "CANADA", "PHILIPPINES", "ISRAEL-JEWS", "ISRAEL-ARABS", "JAPAN",  "SPAIN", "LATVIA", "SLOVAKIA", "FRANCE", "CYPRUS", "PORTUGAL",  "CHILE", "DENMARK", "SWITZERLAND", "BANGLADESH", "BRAZIL", "SOUTHAFRICA", "FINLAND"), y_dcpo = c(2002, 2002, 2002, 2001, 2001, 2002, 2001, 2001, 2002, "na", "na", 2001, "na",  2001, 2000, 2002, "na", 2001, "na", 2001, 2001, "na", "na", 2001,  2001, 2001, "na", 2001, 2001, "na", 2002, 2002, 2002, "na", "na", "2001", "2002"), stringsAsFactors = F)</t>
   </si>
 </sst>
 </file>
@@ -866,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,7 +928,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,679 +936,732 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1985</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1986</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>1987</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>1988</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>1989</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>1990</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>1991</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>1992</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>1993</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>1994</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>1995</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
         <v>158</v>
       </c>
-      <c r="C2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>1985</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>1986</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>1987</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>1988</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>1989</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>1990</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8">
-        <v>1991</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14">
+        <v>1996</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>159</v>
       </c>
-      <c r="C9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <v>1992</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10">
-        <v>1993</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11">
-        <v>1994</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>1995</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F15">
+        <v>1997</v>
+      </c>
+      <c r="G15" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s">
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="F13">
-        <v>1996</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="F16">
+        <v>1998</v>
+      </c>
+      <c r="G16" t="s">
         <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14">
-        <v>1997</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15">
-        <v>1998</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16">
-        <v>1999</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F17">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F18">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F19">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F20">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F21">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F22">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F23">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F24">
         <v>2006</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F25">
         <v>2006</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F26">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F27">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F28">
         <v>2008</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F29">
         <v>2008</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F30">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F31">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G31" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F32">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G32" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F33">
         <v>2011</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F34">
         <v>2011</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="F35">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G35" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F36">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G36" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F37">
+        <v>2013</v>
+      </c>
+      <c r="G37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38">
         <v>2014</v>
       </c>
-      <c r="G37" t="s">
-        <v>147</v>
+      <c r="G38" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/issp_datasets.xlsx
+++ b/data-raw/issp_datasets.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="192">
   <si>
     <t>ISSP</t>
   </si>
@@ -237,12 +238,6 @@
     <t>issp2003</t>
   </si>
   <si>
-    <t>issp2003 &lt;- read.dta(paste0(datapath, "ISSP/National Identity/National Identity II/ZA3910_v2-1-0.dta"), convert.factors=F)</t>
-  </si>
-  <si>
-    <t>data.frame(V3 = c(1:4, 6:8, 10:28, 30:33, 36:37, 40:43), c_dcpo = c("Australia", "Germany", "Germany", "Great Britain", "United States", "Austria", "Hungary", "Ireland", "Netherlands", "Norway",  "Sweden", "Czech Republic", "Slovenia", "Poland", "Bulgaria", "Russia",  "New Zealand", "Canada", "Philippines", "Israel", "Israel", "Japan", "Spain", "Latvia", "Slovakia", "France", "Portugal", "Chile", "Denmark", "Switzerland", "Venezuela", "Finland",  "South Africa", "Taiwan", "Korea", "Uruguay"), y_dcpo = c(rep(2003,4), 2005, 2004, rep(2003, 7), 2005, rep(2003, 3), 2004, 2003, 2004, 2004, rep(2003, 5), 2004, rep(2003, 3), 2004, rep(2003, 4), 2004), stringsAsFactors = F)</t>
-  </si>
-  <si>
     <t>GESIS: ZA3910</t>
   </si>
   <si>
@@ -270,18 +265,9 @@
     <t>issp2006</t>
   </si>
   <si>
-    <t>issp2006 &lt;- read.dta(paste0(datapath, "ISSP/Role of Gov't/Role of Gov't IV/ZA4700.dta"), convert.factors=F)</t>
-  </si>
-  <si>
-    <t>data.frame(V3a = c(36L, 124L, 152L, 158L, 191L, 203L, 208L,  214L, 246L, 250L, 276L, 348L, 372L, 376L, 392L, 410L, 428L, 528L,  554L, 578L, 608L, 616L, 620L, 643L, 705L, 710L, 724L, 752L, 756L,  826L, 840L, 858L, 862L), c_dcpo = c("Australia", "Canada", "Chile",  "Taiwan", "Croatia", "Czech Republic", "Denmark", "Dominican Republic",  "Finland", "France", "Germany", "Hungary", "Ireland", "Israel",  "Japan", "South Korea", "Latvia", "Netherlands", "New Zealand",  "Norway", "Philippines", "Poland", "Portugal", "Russia", "Slovenia",  "South Africa", "Spain", "Sweden", "Switzerland", "Great Britain",  "United States", "Uruguay", "Venezuela"), y_dcpo = c(2007, 2006,  2006, 2006, 2006, 2006, 2008, 2006, 2006, 2006, 2006, 2006, 2005,  2005, 2006, 2006, 2006, 2006, 2006, 2006, 2006, 2008, 2006, 2007, 2006, 2006, 2007, 2006, 2007, 2006, 2006, 2006, 2006), stringsAsFactors = F)</t>
-  </si>
-  <si>
     <t>GESIS: ZA4700</t>
   </si>
   <si>
-    <t>Role of Government IV</t>
-  </si>
-  <si>
     <t>issp1985-2006</t>
   </si>
   <si>
@@ -306,27 +292,15 @@
     <t>GESIS: ZA4831</t>
   </si>
   <si>
-    <t>Leisure Time and Sports</t>
-  </si>
-  <si>
     <t>issp2008</t>
   </si>
   <si>
-    <t>issp2008 &lt;- read.dta(paste0(datapath, "ISSP/Religion/Religion III/ZA4950_v2-2-0.dta"), convert.factors=F)</t>
-  </si>
-  <si>
-    <t>data.frame(V4 = c(36, 40, 56.1, 152, 158, 191, 196, 203,  208, 214, 246, 250, 276.1, 276.2, 348, 372, 376.1, 376.2, 380.1,  380.2, 392, 410, 428, 484, 528, 554, 578, 608, 616, 620, 643,  703, 705, 710, 724, 752, 756, 792, 804, 826.1, 826.2, 840, 858,  862, NA), c_dcpo = c("Australia", "Austria", "Belgium", "Chile",  "Taiwan", "Croatia", "Cyprus", "Czech Republic", "Denmark", "Dominican Republic",  "Finland", "France", "Germany", "Germany", "Hungary", "Ireland",  "Israel", "Israel", "Italy", "Italy", "Japan", "Korea", "Latvia",  "Mexico", "Netherlands", "New Zealand", "Norway", "Philippines",  "Poland", "Portugal", "Russia", "Slovakia", "Slovenia", "South Africa",  "Spain", "Sweden", "Switzerland", "Turkey", "Ukraine", "United Kingdom",  "United Kingdom", "United States", "Uruguay", "Venezuela", "Northern Ireland" ), y_dcpo = c(2009, 2008, 2008, 2008, 2009, 2009, 2008, 2008, 2009,  2008, 2008, 2008, 2008, 2008, 2008, 2008, 2009, 2009, 2008, 2008,  2008, 2008, 2009, 2009, 2008, 2008, 2008, 2007, 2010, 2009, 2009,  2008, 2009, 2008, 2008, 2008, 2008, 2008, 2008, 2008, 2008, 2008,  2008, 2008, 2008), stringsAsFactors = F)</t>
-  </si>
-  <si>
     <t>WEIGHT</t>
   </si>
   <si>
     <t>GESIS: ZA4950</t>
   </si>
   <si>
-    <t>Religion III</t>
-  </si>
-  <si>
     <t>issp1991-2008</t>
   </si>
   <si>
@@ -348,36 +322,21 @@
     <t>issp2009</t>
   </si>
   <si>
-    <t>issp2009 &lt;- read.dta(paste0(datapath, "ISSP/Social Inequality/Social Inequality IV/ZA5400_v3-0-0.dta"), convert.factors=F)</t>
-  </si>
-  <si>
-    <t>data.frame(V5 = c(32L, 36L, 40L, 56L, 100L, 152L, 156L, 158L,  191L, 196L, 203L, 208L, 233L, 246L, 250L, 276L, 348L, 352L, 376L,  380L, 392L, 410L, 428L, 554L, 578L, 608L, 616L, 620L, 643L, 703L,  705L, 710L, 724L, 752L, 756L, 792L, 804L, 826L, 840L, 862L),      c_dcpo = c("Argentina", "Australia", "Austria", "Belgium",      "Bulgaria", "Chile", "China", "Taiwan", "Croatia", "Cyprus",      "Czech Republic", "Denmark", "Estonia", "Finland", "France",      "Germany", "Hungary", "Iceland", "Israel", "Italy", "Japan",      "South Korea", "Latvia", "New Zealand", "Norway", "Philippines",      "Poland", "Portugal", "Russia", "Slovak Republic", "Slovenia",      "South Africa", "Spain", "Sweden", "Switzerland", "Turkey",      "Ukraine", "United Kingdom", "United States", "Venezuela"     ), y_dcpo = c(2010, 2010, 2010, 2009, 2009, 2009, 2008, 2009,      2009, 2009, 2008, 2010, 2010, 2009, 2009, 2010, 2009, 2010,      2009, 2011, 2009, 2009, 2009, 2009, 2010, 2009, 2010, 2009,      2009, 2009, 2009, 2009, 2009, 2009, 2009, 2009, 2009, 2009, 2010, 2009), stringsAsFactors = F)</t>
-  </si>
-  <si>
     <t>GESIS: ZA5400</t>
   </si>
   <si>
-    <t>Social Inequality IV</t>
-  </si>
-  <si>
     <t>issp2010</t>
   </si>
   <si>
     <t>GESIS: ZA5500</t>
   </si>
   <si>
-    <t>Environment III</t>
-  </si>
-  <si>
     <t>issp2011</t>
   </si>
   <si>
     <t>GESIS: ZA5800</t>
   </si>
   <si>
-    <t>Health and Health Care</t>
-  </si>
-  <si>
     <t>issp1987-2009</t>
   </si>
   <si>
@@ -399,36 +358,21 @@
     <t>issp2012</t>
   </si>
   <si>
-    <t>issp2012 &lt;- read.dta(paste0(datapath, "ISSP/Family/Family IV/ZA5900_v1-0-0.dta"), convert.factors=F)</t>
-  </si>
-  <si>
-    <t>data.frame(V4 = c(32L, 100L, 152L, 158L, 203L, 208L, 246L,  250L, 276L, 372L, 376L, 392L, 428L, 440L, 484L, 578L, 608L, 616L,  703L, 705L, 724L, 752L, 756L, 826L), c_dcpo = c("Argentina",  "Bulgaria", "Chile", "Taiwan", "Czech Republic", "Denmark", "Finland",  "France", "Germany", "Ireland", "Israel", "Japan", "Latvia",  "Lithuania", "Mexico", "Norway", "Philippines", "Poland", "Slovakia",  "Slovenia", "Spain", "Sweden", "Switzerland", "United Kingdom" ), y_dcpo = c(2013, 2011, 2012, 2012, 2012, 2013, 2012, 2012,  2012, 2013, 2011, 2012, 2013, 2013, 2013, 2012, 2012, 2013, 2012, 2012, 2012, 2012, 2013, 2012), stringsAsFactors = F)</t>
-  </si>
-  <si>
     <t>GESIS: ZA5900</t>
   </si>
   <si>
-    <t>Family and Changing Gnender Roles IV</t>
-  </si>
-  <si>
     <t>issp2013</t>
   </si>
   <si>
     <t>GESIS: ZA5950</t>
   </si>
   <si>
-    <t>National Identity III</t>
-  </si>
-  <si>
     <t>issp2014</t>
   </si>
   <si>
     <t>GESIS: ZA6670</t>
   </si>
   <si>
-    <t>Citizenship II</t>
-  </si>
-  <si>
     <t>data.frame(v3 = c(2:12), c_dcpo = c("WEST GERMANY", "GREAT BRITAIN", "USA", "AUSTRIA", "HUNGARY", "NETHERLANDS", "ITALY", "IRELAND", "NORTHERN IRELAND", "NORWAY", "ISRAEL"), y_dcpo = c(1988, 1990, 1990, 1989, "na", 1990, 1989, "na", 1990, 1989, "na"), stringsAsFactors=F)</t>
   </si>
   <si>
@@ -525,9 +469,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>error in data/document</t>
-  </si>
-  <si>
     <t>in the variable list of v3-country (p85 of the codebook), Spain is coded twice</t>
   </si>
   <si>
@@ -556,6 +497,105 @@
   </si>
   <si>
     <t>data.frame(v3 = c(1:37), c_dcpo = c("AUSTRALIA",  "WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "NORTHERN IRELAND", "USA",  "AUSTRIA", "HUNGARY", "ITALY", "IRELAND", "NETHERLANDS", "NORWAY",  "SWEDEN", "CZECH REPUBLIC", "SLOVENIA", "POLAND", "BULGARIA",  "RUSSIA", "NEW ZEALAND", "CANADA", "PHILIPPINES", "ISRAEL-JEWS", "ISRAEL-ARABS", "JAPAN",  "SPAIN", "LATVIA", "SLOVAKIA", "FRANCE", "CYPRUS", "PORTUGAL",  "CHILE", "DENMARK", "SWITZERLAND", "BANGLADESH", "BRAZIL", "SOUTHAFRICA", "FINLAND"), y_dcpo = c(2002, 2002, 2002, 2001, 2001, 2002, 2001, 2001, 2002, "na", "na", 2001, "na",  2001, 2000, 2002, "na", 2001, "na", 2001, 2001, "na", "na", 2001,  2001, 2001, "na", 2001, 2001, "na", 2002, 2002, 2002, "na", "na", "2001", "2002"), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>issp2002 &lt;- read.dta("ISSP/Family/Family III/ZA3880_v1-1-0.dta")</t>
+  </si>
+  <si>
+    <t>v361</t>
+  </si>
+  <si>
+    <t>issp2003 &lt;- read.dta("ISSP/National Identity/National Identity II/ZA3910_v2-1-0.dta")</t>
+  </si>
+  <si>
+    <t>issp2004 &lt;- read.dta("ISSP/Citizenship/Citizenship I/ZA3950_v1-3-0.dta")</t>
+  </si>
+  <si>
+    <t>data.frame(V3 = c(1:4, 6:8, 10:28, 30:33, 36:37, 40:43), c_dcpo = c("AUSTRALIA", "WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "USA", "AUSTRIA", "HUNGARY", "IRELAND", "NETHERLANDS", "NORWAY",  "SWEDEN", "CZECH REPUBLIC", "SLOVENIA", "POLAND", "BULGARIA", "RUSSIA",  "NEW ZEALAND", "CANADA", "PHILIPPINES", "ISRAEL-JEWS", "ISRAEL-ARABS", "JAPAN", "SPAIN", "LATVIA", "SLOVAKIA", "FRANCE", "PORTUGAL", "CHILE", "DENMARK", "SWITZERLAND", "VENEZUELA", "FINLAND",  "SOUTH AFRICA", "TAIWAN", "KOREA", "URUGUAY"), y_dcpo = c(rep(2003,4), 2005, 2004, rep(2003, 7), 2005, rep(2003, 3), 2004, 2003, 2004, 2004, rep(2003, 5), 2004, rep(2003, 3), 2004, rep(2003, 4), 2004), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>v381</t>
+  </si>
+  <si>
+    <t>issp2005 &lt;- read.dta("ISSP/Work Orientation/Work Orientation III/ZA4350_v2-0-0.dta")</t>
+  </si>
+  <si>
+    <t>issp2010 &lt;- read.dta("ISSP/Environment/Environment III/ZA5500_v2-0-0.dta")</t>
+  </si>
+  <si>
+    <t>issp2006 &lt;- read.dta("ISSP/Role of Gov't/Role of Gov't IV/ZA4700.dta")</t>
+  </si>
+  <si>
+    <t>data.frame(V3a = c(36L, 124L, 152L, 158L, 191L, 203L, 208L,  214L, 246L, 250L, 276L, 348L, 372L, 376L, 392L, 410L, 428L, 528L,  554L, 578L, 608L, 616L, 620L, 643L, 705L, 710L, 724L, 752L, 756L,  826L, 840L, 858L, 862L), c_dcpo = c("AUSTRALIA", "CANADA", "CHILE",  "TAIWAN", "CROATIA", "CZECH REPUBLIC", "DENMARK", "DOMINICAN REPUBLIC",  "FINLAND", "FRANCE", "GERMANY", "HUNGARY", "IRELAND", "ISRAEL",  "JAPAN", "KOREA", "LATVIA", "NETHERLANDS", "NEW ZEALAND",  "NORWAY", "PHILIPPINES", "POLAND", "PORTUGAL", "RUSSIA", "SLOVENIA",  "SOUTH AFRICA", "SPAIN", "SWEDEN", "SWITZERLAND", "GREAT BRITAIN",  "USA", "URUGUAY", "VENEZUELA"), y_dcpo = c(2007, 2006,  2006, 2006, 2006, 2006, 2008, 2006, 2006, 2006, 2006, 2006, 2005,  2005, 2006, 2006, 2006, 2006, 2006, 2006, 2006, 2008, 2006, 2007, 2006, 2006, 2007, 2006, 2007, 2006, 2006, 2006, 2006), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>issp2007 &lt;- read.dta("ISSP/Leisure Time and Support/Leisure Time and Support I/ZA4831_v1-0-0.dta")</t>
+  </si>
+  <si>
+    <t>only Denmark</t>
+  </si>
+  <si>
+    <t>issp2008 &lt;- read.dta("ISSP/Religion/Religion III/ZA4950_v2-2-0.dta")</t>
+  </si>
+  <si>
+    <t>data.frame(V4 = c(36, 40, 56.1, 152, 158, 191, 196, 203,  208, 214, 246, 250, 276.1, 276.2, 348, 372, 376.1, 376.2, 380.1,  380.2, 392, 410, 428, 484, 528, 554, 578, 608, 616, 620, 643,  703, 705, 710, 724, 752, 756, 792, 804, 826.1, 826.2, 840, 858,  862, NA), c_dcpo = c("AUSTRALIA", "AUSTRIA", "BELGIUM", "CHILE",  "TAIWAN", "CROATIA", "CYPRUS", "CZECH REPUBLIC", "DENMARK", "DOMINICAN REPUBLIC",  "FINLAND", "FRANCE", "WEST GERMANY", "EAST GERMANY", "HUNGARY", "IRELAND",  "ISRAEL-JEWS", "ISRAEL-ARABS", "ITALY-08", "ITALY-10", "JAPAN", "KOREA", "LATVIA",  "MEXICO", "NETHERLANDS", "NEW ZEALAND", "NORWAY", "PHILIPPINES",  "POLAND", "PORTUGAL", "RUSSIA", "SLOVAKIA", "SLOVENIA", "SOUTH AFRICA",  "SPAIN", "SWEDEN", "SWITZERLAND", "TURKEY", "UKRAINE", "GREAT BRITAIN",  "NORTHERN IRELAND", "UNITED STATES", "URUGUAY", "VENEZUELA", "NORTHERN IRELAND"), y_dcpo = c(2009, 2008, 2008, 2008, 2009, 2009, 2008, 2008, 2009,  2008, 2008, 2008, 2008, 2008, 2008, 2008, 2009, 2009, 2008, 2008,  2008, 2008, 2009, 2009, 2008, 2008, 2008, 2007, 2010, 2009, 2009,  2008, 2009, 2008, 2008, 2008, 2008, 2008, 2008, 2008, 2008, 2008,  2008, 2008, 2008), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>issp2009 &lt;- read.dta("ISSP/Social Inequality/Social Inequality IV/ZA5400_v3-0-0.dta")</t>
+  </si>
+  <si>
+    <t>data.frame(v3 = c(1:8, 10:19, 21:22, 24:35, 37:39), c_dcpo = c("AUSTRALIA",  "WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "NORTHERN IRELAND", "USA",  "AUSTRIA", "HUNGARY", "IRELAND", "NETHERLANDS", "NORWAY",  "SWEDEN", "CZECH REPUBLIC", "SLOVENIA", "POLAND", "BULGARIA",  "RUSSIA", "NEW ZEALAND", "PHILIPPINES", "ISRAEL", "JAPAN",  "SPAIN", "LATVIA", "SLOVAKIA", "FRANCE", "CYPRUS", "PORTUGAL",  "CHILE", "DENMARK", "SWITZERLAND", "BELGUIM", "BRAZIL", "FINLAND", "MEXICO", "TAIWAN"), y_dcpo = c(2002, 2002, 2002, 2002, 2003, 2002, 2004, 2002, 2002, 2003, 2002, 2002, 2002,  2003, 2002, 2001, 2002, 2002, 2002, 2002, 2002, 2003, 2003, 2002,  2002, 2002, 2003, 2002, 2003, 2003, 2002, 2003, 2003, 2003, 2002), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>data.frame(V3 = c(1:4, 6:8, 10:22, 24:42), c_dcpo = c("AUSTRALIA", "WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "USA", "AUSTRIA", "HUNGARY", "IRELAND", "NETHERLANDS", "NORWAY",  "SWEDEN", "CZECH REPUBLIC", "SLOVENIA", "POLAND", "BULGARIA", "RUSSIA",  "NEW ZEALAND", "CANADA", "PHILIPPINES", "ISRAEL", "JAPAN", "SPAIN", "LATVIA", "SLOVAKIA", "FRANCE", "CYPRUS", "PORTUGAL", "CHILE", "DENMARK", "SWITZERLAND", "BELGIUM", "BRAZIL", "VENEZUELA", "FINLAND",  "MEXICO", "TAIWAN", "SOUTH AFRICA", "KOREA", "URUGUAY"), y_dcpo = c(2005, 2004, 2004, 2004, 2005, 2004, 2004, 2003, 2005, 2004, 2004, 2004, 2003, 2005, 2005, 2005, 2004, 2004, 2004, 2005, 2004, 2004, 2004, 2005, "na", 2004, 2004, 2005, 2005, 2005, 2004, 2006, 2004, 2004, 2006, 2004, 2004, 2004, 2004), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>data.frame(V3 = c(1:4, 6, 8, 10:15, 17:22, 24:26, 28:30, 32:34, 37:41, 43), c_dcpo = c("AUSTRALIA", "WEST GERMANY", "EAST GERMANY", "GREAT BRITAIN", "USA", "HUNGARY", "IRELAND", "NETHERLANDS", "NORWAY",  "SWEDEN", "CZECH REPUBLIC", "SLOVENIA", "BULGARIA", "RUSSIA", "NEW ZEALAND", "CANADA", "PHILIPPINES", "ISRAEL", "JAPAN", "SPAIN", "LATVIA", "FRANCE", "CYPRUS", "PORTUGAL", "DENMARK", "SWITZERLAND", "BELGIUM", "FINLAND",  "MEXICO", "TAIWAN", "SOUTH AFRICA", "KOREA", "DOMINICAN REPUBLIC"), y_dcpo = c(2005, 2006, 2006, 2005, 2006, 2005, 2006, 2006, 2005, 2005, 2005, 2005, 2005, 2006, 2005, 2006, 2005, 2005, 2005, 2005, 2005, 2005, 2005, 2007, 2006, 2005, 2005, 2005, 2006, 2005, 2005, 2005, 2005), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>only Denmark?</t>
+  </si>
+  <si>
+    <t>data.frame(V5 = c(32L, 36L, 40L, 56L, 100L, 152L, 156L, 158L,  191L, 196L, 203L, 208L, 233L, 246L, 250L, 276L, 348L, 352L, 376L,  380L, 392L, 410L, 428L, 554L, 578L, 608L, 616L, 620L, 643L, 703L,  705L, 710L, 724L, 752L, 756L, 792L, 804L, 826L, 840L, 862L), c_dcpo = c("ARGENTINA", "AUSTRALIA", "AUSTRIA", "BELGIUM", "BULGARIA", "CHILE", "CHINA", "TAIWAN", "CROATIA", "CYPRUS", "CZECH REPUBLIC", "DENMARK", "ESTONIA", "FINLAND", "FRANCE", "GERMANY", "HUNGARY", "ICELAND", "ISRAEL", "ITALY", "JAPAN", "KOREA", "LATVIA", "NEW ZEALAND", "NORWAY", "PHILIPPINES", "POLAND", "PORTUGAL", "RUSSIA", "SLOVAKIA", "SLOVENIA", "SOUTH AFRICA", "SPAIN", "SWEDEN", "SWITZERLAND", "TURKEY", "UKRAINE", "UNITED KINGDOM", "USA", "VENEZUELA"), y_dcpo = c(2010, 2010, 2010, 2009, 2009, 2009, 2008, 2009,      2009, 2009, 2008, 2010, 2010, 2009, 2009, 2010, 2009, 2010, 2009, 2011, 2009, 2009, 2009, 2009, 2010, 2009, 2010, 2009, 2009, 2009, 2009, 2009, 2009, 2009, 2009, 2009, 2009, 2009, 2010, 2009), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>data.frame(V4 = c(32, 40, 56, 100, 124, 152, 158, 191, 203, 208, 246,  250, 276, 376, 392, 410, 428, 440, 484, 554,  578, 608, 643,  703, 705, 710, 724, 752, 756, 792, 826, 840), c_dcpo = c("ARGENTINA", "AUSTRIA", "BELGIUM", "BULGARIA", "CANADA", "CHILE", "TAIWAN", "CROATIA", "CZECH REPUBLIC", "DENMARK", "FINLAND", "FRANCE", "GERMANY", "ISRAEL", "JAPAN", "KOREA", "LATVIA", "LITHUANIA", "MEXICO", "NEW ZEALAND", "NORWAY", "PHILIPPINES", "RUSSIA", "SLOVAKIA", "SLOVENIA", "SOUTH AFRICA", "SPAIN", "SWEDEN", "SWITZERLAND", "TURKEY", "UNITED KINGDOM", "USA"), y_dcpo = 2010, stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>issp2011 &lt;- read.dta("ISSP/Health/Health I/ZA5800_v3-0-0.dta")</t>
+  </si>
+  <si>
+    <t>United Germany, Belgium and United Kingdom</t>
+  </si>
+  <si>
+    <t>issp2012 &lt;- read.dta("ISSP/Family/Family IV/ZA5900_v3-0-0.dta")</t>
+  </si>
+  <si>
+    <t>after 2006, United Germany, Belguim and United Kingdom</t>
+  </si>
+  <si>
+    <t>data.frame(V4 = c(32, 56, 100, 152, 156, 158, 191, 203, 208, 246, 250, 276, 376, 380, 392, 410, 440, 528, 578, 608, 616, 620, 643, 703, 705, 710, 724, 752, 756, 792, 826, 840), c_dcpo = c("AUSTRALIA", "BELGIUM", "BULGARIA", "CHILE", "CHINA", "TAIWAN", "CROATIA", "CZECH REPUBLIC", "DENMARK", "FINLAND", "FRANCE", "GERMANY", "ISRAEL", "ITALY", "JAPAN", "KOREA", "LITHUANIA", "NETHERLANDS", "NORWAY", "PHILIPPINES", "POLAND", "PORTUGAL", "RUSSIA", "SLOVAKIA", "SLOVENIA", "SOUTH AFRICA", "SPAIN", "SWEDEN", "SWITZERLAND", "TURKEY", "UNITED KINGDOM", "USA"), y_dcpo = c(2012, 2012, 2011, 2011, 2011, 2012, 2011, 2012, 2013, 2011, 2011, 2012, 2012, 2013, 2011, 2011, 2011, 2011, 2012, 2011, 2013, 2013, 2011, 2012, 2011, 2011, 2012, 2011, 2011, 2012, 2011, 2012), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>data.frame(V4 = c(32, 36, 40, 100, 124, 152, 156, 158, 191, 203, 208, 246, 250, 276, 352, 356, 372, 376, 392, 410, 428, 440, 484, 578, 608, 616, 643, 703, 705, 710, 724, 752, 756, 792, 826, 840, 862), c_dcpo = c("ARGENTINA", "AUSTRALIA", "AUSTRIA", "BULGARIA", "CANADA", "CHILE", "CHINA", "TAIWAN", "CROATIA", "CZECH REPUBLIC", "DENMARK", "FINLAND", "FRANCE", "GERMANY", "ICELAND", "INDIA", "IRELAND", "ISRAEL", "JAPAN", "KOREA", "LATVIA", "LITHUANIA", "MEXICO", "NORWAY", "PHILIPPINES", "POLAND", "RUSSIA", "SLOVAKIA", "SLOVENIA", "SOUTH AFRICA", "SPAIN", "SWEDEN", "SWITZERLAND", "TURKEY", "UNITED KINGDOM", "USA", "VENEZUELA"), y_dcpo = c(2013, 2013, 2013, 2011, 2014, 2012, 2012, 2012, 2013, 2012, 2013, 2012, 2012, 2012, 2014, 2014, 2013, 2012, 2012, 2012, 2013, 2013, 2013, 2012, 2012, 2013, 2012, 2012, 2012, 2013, 2012, 2012, 2013, 2013, 2012, 2012, 2013), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>issp2013 &lt;- read.dta("ISSP/National Identity/National Identity III/ZA5950_v2-0-0.dta")</t>
+  </si>
+  <si>
+    <t>data.frame(V4 = c(56, 158, 191, 203, 208, 233, 246, 250, 268, 276, 348, 352, 356, 372, 376, 392, 410, 428, 440, 484, 578, 608, 620, 643, 703, 705, 710, 724, 752, 756, 792, 826, 840), c_dcpo = c("BELGIUM", "TAIWAN", "CROATIA", "CZECH REPUBLIC", "DENMARK", "ESTONIA", "FINLAND", "FRANCE", "GEORGIA", "GERMANY", "HUNGARY", "ICELAND", "INDIA", "IRELAND", "ISRAEL", "JAPAN", "KOREA", "LATVIA", "LITHUANIA", "MEXICO", "NORWAY", "PHILIPPINES", "PORTUGAL", "RUSSIA", "SLOVAKIA", "SLOVENIA", "SOUTH AFRICA", "SPAIN", "SWEDEN", "SWITZERLAND", "TURKEY", "UNITED KINGDOM", "USA"), y_dcpo = c(2014, 2013, 2014, 2014, 2014, 2013, 2013, 2013, 2013, 2014, 2013, 2014, 2015, 2013, 2014, 2013, 2013, 2013, 2013, 2015, 2014, 2014, 2015, 2012, 2014, 2013, 2014, 2014, 2013, 2013, 2014, 2013, 2014), stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>issp2014 &lt;- read.dta("ISSP/Citizenship/Citizenship II/ZA6670_v1-0-0.dta")</t>
+  </si>
+  <si>
+    <t>survey year not available; set as 2010</t>
+  </si>
+  <si>
+    <t>survey year not available; set as 2014</t>
+  </si>
+  <si>
+    <t>data.frame(V4 = c(152, 158, 191, 203, 208, 246, 250, 268, 276, 348, 352, 376, 392, 440, 528, 578, 608, 643, 703, 705, 724, 756, 826, 840), c_dcpo = c("CHILE", "TAIWAN", "CROATIA", "CZECH REPUBLIC", "DENMARK", "FINLAND", "FRANCE", "GEORGIA", "GERMANY", "HUNGARY", "ICELAND", "ISRAEL", "JAPAN", "LITHUANIA", "NETHERLANDS", "NORWAY", "PHILIPPINES", "RUSSIA", "SLOVAKIA", "SLOVENIA", "SPAIN", "SWITZERLAND", "UNITED KINGDOM", "USA"), y_dcpo = 2014, stringsAsFactors = F)</t>
   </si>
 </sst>
 </file>
@@ -914,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +968,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,44 +976,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -981,22 +1018,19 @@
       <c r="F3">
         <v>1985</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1004,11 +1038,8 @@
       <c r="F4">
         <v>1986</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1027,11 +1058,8 @@
       <c r="F5">
         <v>1987</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1050,22 +1078,19 @@
       <c r="F6">
         <v>1988</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -1073,19 +1098,16 @@
       <c r="F7">
         <v>1989</v>
       </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1096,19 +1118,16 @@
       <c r="F8">
         <v>1990</v>
       </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1119,19 +1138,16 @@
       <c r="F9">
         <v>1991</v>
       </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
@@ -1142,22 +1158,19 @@
       <c r="F10">
         <v>1992</v>
       </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -1165,19 +1178,16 @@
       <c r="F11">
         <v>1993</v>
       </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -1188,19 +1198,16 @@
       <c r="F12">
         <v>1994</v>
       </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -1211,19 +1218,16 @@
       <c r="F13">
         <v>1995</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -1234,19 +1238,16 @@
       <c r="F14">
         <v>1996</v>
       </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
@@ -1258,21 +1259,18 @@
         <v>1997</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
@@ -1282,9 +1280,6 @@
       </c>
       <c r="F16">
         <v>1998</v>
-      </c>
-      <c r="G16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1292,10 +1287,10 @@
         <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
         <v>58</v>
@@ -1305,9 +1300,6 @@
       </c>
       <c r="F17">
         <v>1999</v>
-      </c>
-      <c r="G17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1315,10 +1307,10 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
         <v>62</v>
@@ -1328,9 +1320,6 @@
       </c>
       <c r="F18">
         <v>2000</v>
-      </c>
-      <c r="G18" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1338,33 +1327,39 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>158</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>66</v>
       </c>
       <c r="F19">
         <v>2001</v>
-      </c>
-      <c r="G19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>68</v>
       </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" t="s">
+        <v>160</v>
+      </c>
       <c r="E20" t="s">
         <v>69</v>
       </c>
       <c r="F20">
         <v>2002</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1372,296 +1367,840 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F21">
         <v>2003</v>
       </c>
-      <c r="G21" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" t="s">
+        <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22">
         <v>2004</v>
       </c>
-      <c r="G22" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F23">
         <v>2005</v>
       </c>
-      <c r="G23" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24">
-        <v>2006</v>
-      </c>
-      <c r="G24" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F25">
         <v>2006</v>
       </c>
-      <c r="G25" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F26">
         <v>2006</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F27">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F28">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G28" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F29">
         <v>2008</v>
       </c>
-      <c r="G29" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F30">
         <v>2008</v>
       </c>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F31">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F32">
-        <v>2010</v>
-      </c>
-      <c r="G32" t="s">
-        <v>115</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F33">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F34">
         <v>2011</v>
       </c>
-      <c r="G34" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F35">
         <v>2011</v>
       </c>
       <c r="G35" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F36">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G36" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F37">
-        <v>2013</v>
-      </c>
-      <c r="G37" t="s">
-        <v>132</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39">
+        <v>2014</v>
+      </c>
+      <c r="G39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>1985</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>1986</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1987</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1988</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>1989</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>1990</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>1991</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>1992</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>1993</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>133</v>
       </c>
-      <c r="E38" t="s">
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>1994</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>134</v>
       </c>
-      <c r="F38">
-        <v>2014</v>
-      </c>
-      <c r="G38" t="s">
-        <v>135</v>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>1995</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>1996</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <v>1997</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>1998</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>1999</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16">
+        <v>2000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17">
+        <v>2001</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18">
+        <v>2002</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <v>2003</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>2004</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21">
+        <v>2005</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/issp_datasets.xlsx
+++ b/data-raw/issp_datasets.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ISSP" sheetId="1" r:id="rId1"/>
+    <sheet name="LatinoBarometro" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="228">
   <si>
     <t>ISSP</t>
   </si>
@@ -34,18 +34,12 @@
     <t>GESIS: ZA1490</t>
   </si>
   <si>
-    <t>Role of Government I</t>
-  </si>
-  <si>
     <t>issp1986</t>
   </si>
   <si>
     <t>GESIS: ZA1620</t>
   </si>
   <si>
-    <t>Social Networks and Support Systems</t>
-  </si>
-  <si>
     <t>issp1987</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>GESIS: ZA1680</t>
   </si>
   <si>
-    <t>Social Inequity I</t>
-  </si>
-  <si>
     <t>issp1988</t>
   </si>
   <si>
@@ -79,18 +70,12 @@
     <t>GESIS: ZA1700</t>
   </si>
   <si>
-    <t>Family and Changing Gender Roles I</t>
-  </si>
-  <si>
     <t>issp1989</t>
   </si>
   <si>
     <t>GESIS: ZA1840</t>
   </si>
   <si>
-    <t>Work Orientations I</t>
-  </si>
-  <si>
     <t>issp1990</t>
   </si>
   <si>
@@ -100,9 +85,6 @@
     <t>GESIS: ZA1950</t>
   </si>
   <si>
-    <t>Role of Government II</t>
-  </si>
-  <si>
     <t>issp1991</t>
   </si>
   <si>
@@ -112,9 +94,6 @@
     <t>GESIS: ZA2150</t>
   </si>
   <si>
-    <t>Religion I</t>
-  </si>
-  <si>
     <t>issp1992</t>
   </si>
   <si>
@@ -124,18 +103,12 @@
     <t>GESIS: ZA2310</t>
   </si>
   <si>
-    <t>Social Inequity II</t>
-  </si>
-  <si>
     <t>issp1993</t>
   </si>
   <si>
     <t>GESIS: ZA2450</t>
   </si>
   <si>
-    <t>Environment I</t>
-  </si>
-  <si>
     <t>issp1994</t>
   </si>
   <si>
@@ -145,9 +118,6 @@
     <t>GESIS: ZA2620</t>
   </si>
   <si>
-    <t>Family and Changing Gender Roles II</t>
-  </si>
-  <si>
     <t>issp1995</t>
   </si>
   <si>
@@ -157,9 +127,6 @@
     <t>GESIS: ZA2880</t>
   </si>
   <si>
-    <t>National Identity I</t>
-  </si>
-  <si>
     <t>issp1996</t>
   </si>
   <si>
@@ -169,18 +136,12 @@
     <t>GESIS: ZA2900</t>
   </si>
   <si>
-    <t>Role of Government III</t>
-  </si>
-  <si>
     <t>issp1997</t>
   </si>
   <si>
     <t>GESIS: ZA3090</t>
   </si>
   <si>
-    <t>Work Orientations II</t>
-  </si>
-  <si>
     <t>issp1998</t>
   </si>
   <si>
@@ -190,9 +151,6 @@
     <t>GESIS: ZA3190</t>
   </si>
   <si>
-    <t>Religion II</t>
-  </si>
-  <si>
     <t>issp1999</t>
   </si>
   <si>
@@ -202,9 +160,6 @@
     <t>GESIS: ZA3430</t>
   </si>
   <si>
-    <t>Social Inequality III</t>
-  </si>
-  <si>
     <t>issp2000</t>
   </si>
   <si>
@@ -214,54 +169,36 @@
     <t>GESIS: ZA3440</t>
   </si>
   <si>
-    <t>Environment II</t>
-  </si>
-  <si>
     <t>issp2001</t>
   </si>
   <si>
     <t>GESIS: ZA3680</t>
   </si>
   <si>
-    <t>Social Relations and Support Systems/Social Networks II</t>
-  </si>
-  <si>
     <t>issp2002</t>
   </si>
   <si>
     <t>GESIS: ZA3880</t>
   </si>
   <si>
-    <t>Family and Changing Gnder Roles III</t>
-  </si>
-  <si>
     <t>issp2003</t>
   </si>
   <si>
     <t>GESIS: ZA3910</t>
   </si>
   <si>
-    <t>National Identity II</t>
-  </si>
-  <si>
     <t>issp2004</t>
   </si>
   <si>
     <t>GESIS: ZA3950</t>
   </si>
   <si>
-    <t xml:space="preserve">Citizenship </t>
-  </si>
-  <si>
     <t>issp2005</t>
   </si>
   <si>
     <t>GESIS: ZA4350</t>
   </si>
   <si>
-    <t>Work Orientation III</t>
-  </si>
-  <si>
     <t>issp2006</t>
   </si>
   <si>
@@ -596,16 +533,193 @@
   </si>
   <si>
     <t>data.frame(V4 = c(152, 158, 191, 203, 208, 246, 250, 268, 276, 348, 352, 376, 392, 440, 528, 578, 608, 643, 703, 705, 724, 756, 826, 840), c_dcpo = c("CHILE", "TAIWAN", "CROATIA", "CZECH REPUBLIC", "DENMARK", "FINLAND", "FRANCE", "GEORGIA", "GERMANY", "HUNGARY", "ICELAND", "ISRAEL", "JAPAN", "LITHUANIA", "NETHERLANDS", "NORWAY", "PHILIPPINES", "RUSSIA", "SLOVAKIA", "SLOVENIA", "SPAIN", "SWITZERLAND", "UNITED KINGDOM", "USA"), y_dcpo = 2014, stringsAsFactors = F)</t>
+  </si>
+  <si>
+    <t>lb1996</t>
+  </si>
+  <si>
+    <t>lb1998</t>
+  </si>
+  <si>
+    <t>lb2002</t>
+  </si>
+  <si>
+    <t>lb2004</t>
+  </si>
+  <si>
+    <t>lb2008</t>
+  </si>
+  <si>
+    <t>lb2009</t>
+  </si>
+  <si>
+    <t>lb1995</t>
+  </si>
+  <si>
+    <t>lb1997</t>
+  </si>
+  <si>
+    <t>lb2000</t>
+  </si>
+  <si>
+    <t>lb2001</t>
+  </si>
+  <si>
+    <t>lb2003</t>
+  </si>
+  <si>
+    <t>lb2005</t>
+  </si>
+  <si>
+    <t>lb2006</t>
+  </si>
+  <si>
+    <t>lb2007</t>
+  </si>
+  <si>
+    <t>lb2010</t>
+  </si>
+  <si>
+    <t>lb2011</t>
+  </si>
+  <si>
+    <t>lb2013</t>
+  </si>
+  <si>
+    <t>lb2015</t>
+  </si>
+  <si>
+    <t>Latinobarometro</t>
+  </si>
+  <si>
+    <t>lb1996 &lt;- read.dta("Latinobarometro/1996/Latinobarometro_1996_datos_english_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>lb1997 &lt;- read.dta("Latinobarometro/1997/Latinobarometro_1997_datos_english_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>lb2001 &lt;- read.dta("Latinobarometro/2001/Latinobarometro_2001_datos_english_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>data_frame(pais = c(32, 76, 152, 484, 600, 604, 858, 862), c_dcpo = c("ARGENTINA", "BRAZIL", "CHILE", "MEXICO", "PARAGUARY", "PERU", "URUGUAY", "VENEZUELA"), y_dcpo=1995)</t>
+  </si>
+  <si>
+    <t>data_frame(pais = c(32, 68, 76, 152, 170, 188, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=1996)</t>
+  </si>
+  <si>
+    <t>Columbia is spelled as Colombia in the .dta file</t>
+  </si>
+  <si>
+    <t>lb1998 &lt;- read.dta("Latinobarometro/1998/Latinobarometro_1998_datos_english_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=1997)</t>
+  </si>
+  <si>
+    <t>lb1995 &lt;- read.dta("Latinobarometro/1995/Latinobarometro_1995_data_english_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=1998)</t>
+  </si>
+  <si>
+    <t>pondera</t>
+  </si>
+  <si>
+    <t>lb2000 &lt;- read.dta("Latinobarometro/2000/Latinobarometro_2000_datos_eng_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>lb2003 &lt;- read.dta("Latinobarometro/2003/Latinobarometro_2003_datos_eng_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>lb2005 &lt;- read.dta("Latinobarometro/2005/Latinobarometro_2005_datos_eng_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>lb2006 &lt;- read.dta("Latinobarometro/2006/Latinobarometro_2006_datos_eng_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>lb2007 &lt;- read.dta("Latinobarometro/2007/Latinobarometro_2007_datos_eng_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>lb2010 &lt;- read.dta("Latinobarometro/2010/Latinobarometro_2010_datos_eng_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 218, 222, 320, 340, 484, 558, 591, 600, 604, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "URUGUAY", "VENEZUELA"), y_dcpo=2000)</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=2001)</t>
+  </si>
+  <si>
+    <t>lb2002 &lt;- read.dta("Latinobarometro/2002/Latinobarometro_2002_datos_eng_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=2002)</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=2003)</t>
+  </si>
+  <si>
+    <t>lb2004 &lt;- read.dta("Latinobarometro/2004/Latinobarometro_2004_datos_eng_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 214, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "DOMINICAN REP", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=2004)</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 214, 218, 222, 320, 340, 484, 558, 591, 600, 604, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "DOMINICAN REP", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "URUGUAY", "VENEZUELA"), y_dcpo=2005)</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 214, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "DOMINICAN REP", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=2006)</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 214, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "DOMINICAN REP", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=2007)</t>
+  </si>
+  <si>
+    <t>lb2008 &lt;- read.dta("Latinobarometro/2008/Latinobarometro_2008_datos_eng_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 214, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "DOMINICAN REP", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=2008)</t>
+  </si>
+  <si>
+    <t>lb2009 &lt;- read.dta("Latinobarometro/2009/Latinobarometro_2009_datos_eng_v2014_06_27.dta")</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 214, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "DOMINICAN REP", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=2009)</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 214, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "DOMINICAN REP", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=2010)</t>
+  </si>
+  <si>
+    <t>lb2011 &lt;- read.dta("Latinobarometro/2011/Latinobarometro_2011_eng.dta")</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 214, 218, 222, 320, 340, 484, 558, 591, 600, 604, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "DOMINICAN REP", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "URUGUAY", "VENEZUELA"), y_dcpo=2011)</t>
+  </si>
+  <si>
+    <t>lb2013 &lt;- read.dta("Latinobarometro/2013/Latinobarometro2013Eng.dta")</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 214, 218, 222, 320, 340, 484, 558, 591, 600, 604, 724, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "DOMINICAN REP", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "SPAIN", "URUGUAY", "VENEZUELA"), y_dcpo=2013)</t>
+  </si>
+  <si>
+    <t>lb2015 &lt;- read.dta("Latinobarometro/2015/Latinobarometro_2015_Eng.dta")</t>
+  </si>
+  <si>
+    <t>data_frame(idenpa = c(32, 68, 76, 152, 170, 188, 214, 218, 222, 320, 340, 484, 558, 591, 600, 604, 858, 862), c_dcpo = c("ARGENTINA", "BOLIVIA", "BRAZIL", "CHILE", "COLUMBIA", "COSTA RICA", "DOMINICAN REP", "ECUADOR", "EL SALVADOR", "GUATEMALA", "HONDURAS", "MEXICO", "NICARAGUA", "PANAMA", "PARAGUARY", "PERU", "URUGUAY", "VENEZUELA"), y_dcpo=2015)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -637,9 +751,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,25 +1093,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1004,13 +1119,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -1021,19 +1136,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
       </c>
       <c r="F4">
         <v>1986</v>
@@ -1041,19 +1156,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
       <c r="F5">
         <v>1987</v>
@@ -1061,19 +1176,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
       <c r="F6">
         <v>1988</v>
@@ -1081,19 +1196,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>1989</v>
@@ -1101,19 +1216,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>1990</v>
@@ -1121,19 +1236,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>1991</v>
@@ -1141,19 +1256,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>1992</v>
@@ -1161,19 +1276,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>1993</v>
@@ -1181,19 +1296,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>1994</v>
@@ -1201,19 +1316,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <v>1995</v>
@@ -1221,19 +1336,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>1996</v>
@@ -1241,42 +1356,42 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>1997</v>
       </c>
       <c r="G15" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F16">
         <v>1998</v>
@@ -1284,19 +1399,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>1999</v>
@@ -1304,19 +1419,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>2000</v>
@@ -1324,19 +1439,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>2001</v>
@@ -1344,19 +1459,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F20">
         <v>2002</v>
@@ -1364,19 +1479,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>2003</v>
@@ -1384,19 +1499,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>2004</v>
@@ -1404,19 +1519,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F23">
         <v>2005</v>
@@ -1424,24 +1539,24 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <v>2006</v>
@@ -1449,67 +1564,67 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F26">
         <v>2006</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F27">
         <v>2006</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <v>2007</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F29">
         <v>2008</v>
@@ -1517,47 +1632,47 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F30">
         <v>2008</v>
       </c>
       <c r="G30" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F31">
         <v>2008</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F32">
         <v>2009</v>
@@ -1565,42 +1680,42 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F33">
         <v>2010</v>
       </c>
       <c r="G33" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F34">
         <v>2011</v>
@@ -1608,47 +1723,47 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F35">
         <v>2011</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F36">
         <v>2011</v>
       </c>
       <c r="G36" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s">
         <v>91</v>
-      </c>
-      <c r="E37" t="s">
-        <v>112</v>
       </c>
       <c r="F37">
         <v>2012</v>
@@ -1656,19 +1771,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F38">
         <v>2013</v>
@@ -1676,30 +1791,30 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F39">
         <v>2014</v>
       </c>
       <c r="G39" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1709,498 +1824,403 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>1985</v>
-      </c>
       <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="F2">
-        <v>1986</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>194</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>1987</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+        <v>189</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1996</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+        <v>197</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>1988</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
+        <v>189</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
+        <v>199</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>1989</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
+        <v>189</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
+        <v>207</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>1990</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7">
-        <v>1991</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>127</v>
+        <v>189</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
+        <v>210</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8">
-        <v>1992</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>131</v>
+        <v>189</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" t="s">
-        <v>132</v>
+        <v>211</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9">
-        <v>1993</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
+        <v>189</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
+        <v>213</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>1994</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
+        <v>189</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
+        <v>214</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>1995</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>136</v>
+        <v>189</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
+        <v>215</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>1996</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>140</v>
+        <v>189</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
+        <v>216</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13">
-        <v>1997</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>151</v>
+        <v>189</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
+        <v>218</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14">
-        <v>1998</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>152</v>
+        <v>189</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
+        <v>220</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15">
-        <v>1999</v>
-      </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>153</v>
+        <v>189</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
+        <v>221</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16">
-        <v>2000</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>157</v>
+        <v>189</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
+        <v>223</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17">
-        <v>2001</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>159</v>
+        <v>189</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" t="s">
-        <v>160</v>
+        <v>225</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18">
-        <v>2002</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>161</v>
+        <v>189</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
+        <v>227</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19">
-        <v>2003</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20">
-        <v>2004</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21">
-        <v>2005</v>
-      </c>
-      <c r="G21" t="s">
-        <v>79</v>
+        <v>189</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
